--- a/flight_ticket_class_data.xlsx
+++ b/flight_ticket_class_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FBT\Kì 8\PRN231\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FBT\Kì 8\PRN231\PRN231Fall2024_SE1714_Group5_ARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDB7D7B-D9E3-4AEF-B5F8-B47679BA3D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341420CC-6F34-46BA-942E-B696453FB151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FlightNumber</t>
   </si>
@@ -58,19 +58,7 @@
     <t>VN4567</t>
   </si>
   <si>
-    <t>VN0003</t>
-  </si>
-  <si>
-    <t>VN0004</t>
-  </si>
-  <si>
-    <t>VN0005</t>
-  </si>
-  <si>
-    <t>VN0006</t>
-  </si>
-  <si>
-    <t>VN0007</t>
+    <t>VN0012</t>
   </si>
 </sst>
 </file>
@@ -448,7 +436,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,7 +489,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>45594.375</v>
+        <v>45635.375</v>
       </c>
       <c r="D2">
         <v>90</v>
@@ -523,120 +511,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45625.375</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>1490000</v>
-      </c>
-      <c r="H3">
-        <v>2000000</v>
-      </c>
-      <c r="I3">
-        <v>50000000</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45626.375</v>
-      </c>
-      <c r="D4">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1490000</v>
-      </c>
-      <c r="H4">
-        <v>2000000</v>
-      </c>
-      <c r="I4">
-        <v>50000000</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45627.375</v>
-      </c>
-      <c r="D5">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1490000</v>
-      </c>
-      <c r="H5">
-        <v>2000000</v>
-      </c>
-      <c r="I5">
-        <v>50000000</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45628.375</v>
-      </c>
-      <c r="D6">
-        <v>90</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>1490000</v>
-      </c>
-      <c r="H6">
-        <v>2000000</v>
-      </c>
-      <c r="I6">
-        <v>50000000</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>

--- a/flight_ticket_class_data.xlsx
+++ b/flight_ticket_class_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FBT\Kì 8\PRN231\PRN231Fall2024_SE1714_Group5_ARS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRN231\GroupProject\PRN231Fall2024_SE1714_Group5_ARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341420CC-6F34-46BA-942E-B696453FB151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B105B497-03EA-4D69-9038-F406E3773264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>FlightNumber</t>
   </si>
@@ -436,7 +436,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,10 +511,62 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45635.375</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1490000</v>
+      </c>
+      <c r="H3">
+        <v>2000000</v>
+      </c>
+      <c r="I3">
+        <v>50000000</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45635.375</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1490000</v>
+      </c>
+      <c r="H4">
+        <v>2000000</v>
+      </c>
+      <c r="I4">
+        <v>50000000</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>

--- a/flight_ticket_class_data.xlsx
+++ b/flight_ticket_class_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FBT\Kì 8\PRN231\PRN231Fall2024_SE1714_Group5_ARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341420CC-6F34-46BA-942E-B696453FB151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA5394-EDFF-4115-B1C0-81C591921CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>FlightNumber</t>
   </si>
@@ -58,7 +58,13 @@
     <t>VN4567</t>
   </si>
   <si>
-    <t>VN0012</t>
+    <t>VN001000</t>
+  </si>
+  <si>
+    <t>VN001001</t>
+  </si>
+  <si>
+    <t>VN001002</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,10 +517,62 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45635.458333333336</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1490000</v>
+      </c>
+      <c r="H3">
+        <v>2000000</v>
+      </c>
+      <c r="I3">
+        <v>50000000</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45635.020833333336</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1490000</v>
+      </c>
+      <c r="H4">
+        <v>2000000</v>
+      </c>
+      <c r="I4">
+        <v>50000000</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>

--- a/flight_ticket_class_data.xlsx
+++ b/flight_ticket_class_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FBT\Kì 8\PRN231\PRN231Fall2024_SE1714_Group5_ARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C475780C-AA86-4313-8D0D-BD9523D88FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A8D44-5364-4360-9196-BFAD674E74A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,16 +49,16 @@
     <t>FirstClassPrice</t>
   </si>
   <si>
-    <t>Tan Son Nhat International Airport</t>
-  </si>
-  <si>
     <t>Noi Bai International Airport</t>
   </si>
   <si>
-    <t>VN4567</t>
-  </si>
-  <si>
-    <t>VN0010098</t>
+    <t>Da Nang International Airport</t>
+  </si>
+  <si>
+    <t>QH3456</t>
+  </si>
+  <si>
+    <t>QH1111</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,31 +483,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="2">
-        <v>45609.125</v>
+        <v>45602.333333333336</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2">
-        <v>1490000</v>
+        <v>1990000</v>
       </c>
       <c r="H2">
-        <v>2000000</v>
+        <v>3400000</v>
       </c>
       <c r="I2">
-        <v>50000000</v>
+        <v>80000000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">

--- a/flight_ticket_class_data.xlsx
+++ b/flight_ticket_class_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FBT\Kì 8\PRN231\PRN231Fall2024_SE1714_Group5_ARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A8D44-5364-4360-9196-BFAD674E74A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8076CA6-EA08-4141-BC42-2284D1F9F7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,10 @@
     <t>Da Nang International Airport</t>
   </si>
   <si>
-    <t>QH3456</t>
-  </si>
-  <si>
     <t>QH1111</t>
+  </si>
+  <si>
+    <t>QH4444</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,13 +483,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="2">
-        <v>45602.333333333336</v>
+        <v>45602.833333333336</v>
       </c>
       <c r="D2">
         <v>75</v>

--- a/flight_ticket_class_data.xlsx
+++ b/flight_ticket_class_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FBT\Kì 8\PRN231\PRN231Fall2024_SE1714_Group5_ARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8076CA6-EA08-4141-BC42-2284D1F9F7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C43EBDA-E99E-4163-9401-D0A09B3C4FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>FlightNumber</t>
   </si>
@@ -58,7 +58,37 @@
     <t>QH1111</t>
   </si>
   <si>
-    <t>QH4444</t>
+    <t>QH5555</t>
+  </si>
+  <si>
+    <t>QH5556</t>
+  </si>
+  <si>
+    <t>QH5557</t>
+  </si>
+  <si>
+    <t>QH5558</t>
+  </si>
+  <si>
+    <t>QH5559</t>
+  </si>
+  <si>
+    <t>QH5560</t>
+  </si>
+  <si>
+    <t>QH5561</t>
+  </si>
+  <si>
+    <t>QH5562</t>
+  </si>
+  <si>
+    <t>VJ2345</t>
+  </si>
+  <si>
+    <t>VU1111</t>
+  </si>
+  <si>
+    <t>VN4567</t>
   </si>
 </sst>
 </file>
@@ -433,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,10 +519,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>45602.833333333336</v>
+        <v>45970.833333333336</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -511,22 +541,210 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45970.833333333336</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>1990000</v>
+      </c>
+      <c r="H3">
+        <v>3400000</v>
+      </c>
+      <c r="I3">
+        <v>80000000</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45970.833333333336</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>1990000</v>
+      </c>
+      <c r="H4">
+        <v>3400000</v>
+      </c>
+      <c r="I4">
+        <v>80000000</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45970.833333333336</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>1990000</v>
+      </c>
+      <c r="H5">
+        <v>3400000</v>
+      </c>
+      <c r="I5">
+        <v>80000000</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45970.833333333336</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>1990000</v>
+      </c>
+      <c r="H6">
+        <v>3400000</v>
+      </c>
+      <c r="I6">
+        <v>80000000</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45970.833333333336</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>1990000</v>
+      </c>
+      <c r="H7">
+        <v>3400000</v>
+      </c>
+      <c r="I7">
+        <v>80000000</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45970.833333333336</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>1990000</v>
+      </c>
+      <c r="H8">
+        <v>3400000</v>
+      </c>
+      <c r="I8">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45970.833333333336</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>1990000</v>
+      </c>
+      <c r="H9">
+        <v>3400000</v>
+      </c>
+      <c r="I9">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/flight_ticket_class_data.xlsx
+++ b/flight_ticket_class_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FBT\Kì 8\PRN231\PRN231Fall2024_SE1714_Group5_ARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A4B90-15B0-4B22-8821-973DE08622CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6225B4EF-125D-47E5-B3A6-530DA558F7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>FlightNumber</t>
   </si>
@@ -58,10 +58,16 @@
     <t>VJ1111</t>
   </si>
   <si>
-    <t>VJ8767</t>
-  </si>
-  <si>
-    <t>VJ8768</t>
+    <t>VJ8778</t>
+  </si>
+  <si>
+    <t>VJ8779</t>
+  </si>
+  <si>
+    <t>VJ8780</t>
+  </si>
+  <si>
+    <t>VJ8781</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,7 +498,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>45608.833333333336</v>
+        <v>45638.833333333336</v>
       </c>
       <c r="D2">
         <v>90</v>
@@ -521,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>45608.833333333336</v>
+        <v>45638.833333333336</v>
       </c>
       <c r="D3">
         <v>90</v>
@@ -543,10 +549,62 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45638.833333333336</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>2000000</v>
+      </c>
+      <c r="H4">
+        <v>1200000</v>
+      </c>
+      <c r="I4">
+        <v>80000000</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45638.833333333336</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>2000000</v>
+      </c>
+      <c r="H5">
+        <v>1200000</v>
+      </c>
+      <c r="I5">
+        <v>80000000</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
